--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_4_SzP.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_4_SzP.xlsx
@@ -53,9 +53,6 @@
     <t>http://www.mintantermunk.nhely.hu/web/index.htm</t>
   </si>
   <si>
-    <t>SzP_1</t>
-  </si>
-  <si>
     <t>Szilágyi Péter</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Az oldalon állandó linkek formájában el kell helyezni a fontosabb dolgokat (pl. elérhetőség, adatvédelmi nyilatkozat, impresszum, kapcsolat, stb.)</t>
+  </si>
+  <si>
+    <t>SzP_4</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -675,11 +675,11 @@
         <v>7</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
